--- a/.cfg/activity/活动_activity.xlsx
+++ b/.cfg/activity/活动_activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -39,12 +39,6 @@
     <t>活动结束显示秒数</t>
   </si>
   <si>
-    <t>再次开启间隔时间</t>
-  </si>
-  <si>
-    <t>开启次数</t>
-  </si>
-  <si>
     <t>玩家参与条件</t>
   </si>
   <si>
@@ -63,7 +57,7 @@
     <t>timeStrategyValue</t>
   </si>
   <si>
-    <t>preShowSeonds</t>
+    <t>preShowSeconds</t>
   </si>
   <si>
     <t>openSeconds</t>
@@ -72,12 +66,6 @@
     <t>endShowSeconds</t>
   </si>
   <si>
-    <t>intervalSeconds</t>
-  </si>
-  <si>
-    <t>openTimes</t>
-  </si>
-  <si>
     <t>joinConditions</t>
   </si>
   <si>
@@ -94,6 +82,36 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>活动1</t>
+  </si>
+  <si>
+    <t>CRON</t>
+  </si>
+  <si>
+    <t>{"value": "0 0 0 27 1 ?"}</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>活动2</t>
+  </si>
+  <si>
+    <t>OPEN_SERVER_DAY</t>
+  </si>
+  <si>
+    <t>{"value": 10}</t>
+  </si>
+  <si>
+    <t>活动3</t>
+  </si>
+  <si>
+    <t>ABSOLUTE</t>
+  </si>
+  <si>
+    <t>{"value": "2021-01-28 00:00:00"}</t>
   </si>
 </sst>
 </file>
@@ -101,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,53 +133,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +194,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,32 +247,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +286,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,30 +448,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,132 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,8 +483,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,13 +528,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,39 +569,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,25 +1080,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="16.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="33.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="17.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="16.6666666666667" customWidth="1"/>
-    <col min="10" max="11" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="9" width="16.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,121 +1124,184 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>86400</v>
+      </c>
+      <c r="G5">
+        <v>3600</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>86400</v>
+      </c>
+      <c r="G6">
+        <v>3600</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>86400</v>
+      </c>
+      <c r="G7">
+        <v>3600</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4 F4 G4 H4 I4 J4 K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4 F4 G4 H4 I4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
